--- a/biology/Microbiologie/Pectobacterium_carotovorum/Pectobacterium_carotovorum.xlsx
+++ b/biology/Microbiologie/Pectobacterium_carotovorum/Pectobacterium_carotovorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pectobacterium carotovorum (synonyme : Erwinia carotovora) est une espèce de bactéries de la famille des Enterobacteriaceae.
 Cette bactérie est un agent pathogène des plantes avec une gamme d'hôte variée. Elle provoque notamment la nécrose vasculaire de la betterave et, chez la pomme de terre, les symptômes de la pourriture molle bactérienne et de la jambe noire.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 mars 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 mars 2011) :
 sous-espèce Pectobacterium carotovorum subsp. brasiliensis
 Pectobacterium carotovorum subsp. brasiliensis PBR1692
 sous-espèce Pectobacterium carotovorum subsp. carotovorum
